--- a/public/Users.xlsx
+++ b/public/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashbeemorgado/devs/laf/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34863CC9-9DB9-D94A-9935-00766B13DF14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72523959-7985-1048-A133-91951CBC87C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24860" windowHeight="20740" xr2:uid="{14EFB9D0-AEA6-1448-9800-D24928032668}"/>
   </bookViews>
@@ -316,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -325,32 +325,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Courier New"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -373,12 +353,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,7 +673,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -723,11 +700,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
@@ -740,11 +717,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
@@ -757,11 +734,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
@@ -774,11 +751,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
@@ -791,11 +768,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
@@ -808,11 +785,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
@@ -825,11 +802,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
@@ -842,11 +819,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
@@ -859,11 +836,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
@@ -876,11 +853,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
@@ -893,11 +870,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
@@ -910,11 +887,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
@@ -927,11 +904,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14" t="s">
@@ -944,11 +921,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
@@ -961,11 +938,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>34</v>
       </c>
       <c r="C16" t="s">
@@ -974,15 +951,15 @@
       <c r="D16">
         <v>55</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>35</v>
       </c>
       <c r="C17" t="s">
@@ -991,15 +968,15 @@
       <c r="D17">
         <v>110</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="C18" t="s">
@@ -1008,15 +985,15 @@
       <c r="D18">
         <v>165</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19" t="s">
@@ -1029,11 +1006,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20" t="s">
@@ -1042,15 +1019,15 @@
       <c r="D20">
         <v>584</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
@@ -1059,15 +1036,15 @@
       <c r="D21">
         <v>586</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
       <c r="C22" t="s">
@@ -1076,15 +1053,15 @@
       <c r="D22">
         <v>587</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" t="s">
@@ -1093,15 +1070,15 @@
       <c r="D23">
         <v>588</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>42</v>
       </c>
       <c r="C24" t="s">
@@ -1110,15 +1087,15 @@
       <c r="D24">
         <v>594</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25" t="s">
@@ -1127,15 +1104,15 @@
       <c r="D25">
         <v>595</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>44</v>
       </c>
       <c r="C26" t="s">
@@ -1144,15 +1121,15 @@
       <c r="D26">
         <v>20</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>45</v>
       </c>
       <c r="C27" t="s">
@@ -1161,15 +1138,15 @@
       <c r="D27">
         <v>75</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>46</v>
       </c>
       <c r="C28" t="s">
@@ -1178,15 +1155,15 @@
       <c r="D28">
         <v>225</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>47</v>
       </c>
       <c r="C29" t="s">
@@ -1195,15 +1172,15 @@
       <c r="D29">
         <v>237</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>48</v>
       </c>
       <c r="C30" t="s">
@@ -1212,15 +1189,15 @@
       <c r="D30">
         <v>224</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>49</v>
       </c>
       <c r="C31" t="s">
@@ -1229,15 +1206,15 @@
       <c r="D31">
         <v>227</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>50</v>
       </c>
       <c r="C32" t="s">
@@ -1246,15 +1223,15 @@
       <c r="D32">
         <v>1337</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>51</v>
       </c>
       <c r="C33" t="s">
@@ -1263,15 +1240,15 @@
       <c r="D33">
         <v>226</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>52</v>
       </c>
       <c r="C34" t="s">
@@ -1280,15 +1257,15 @@
       <c r="D34">
         <v>236</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>53</v>
       </c>
       <c r="C35" t="s">
@@ -1297,15 +1274,15 @@
       <c r="D35">
         <v>228</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>54</v>
       </c>
       <c r="C36" t="s">
@@ -1314,15 +1291,15 @@
       <c r="D36">
         <v>238</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
@@ -1331,15 +1308,15 @@
       <c r="D37">
         <v>235</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>56</v>
       </c>
       <c r="C38" t="s">
@@ -1348,7 +1325,7 @@
       <c r="D38">
         <v>130</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" t="s">
         <v>17</v>
       </c>
     </row>

--- a/public/Users.xlsx
+++ b/public/Users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashbeemorgado/devs/laf/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72523959-7985-1048-A133-91951CBC87C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EB9470-FE00-6942-BD57-7F8B31A26860}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24860" windowHeight="20740" xr2:uid="{14EFB9D0-AEA6-1448-9800-D24928032668}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="132">
   <si>
     <t>ID</t>
   </si>
@@ -310,6 +310,117 @@
   </si>
   <si>
     <t>MARIA SISON</t>
+  </si>
+  <si>
+    <t>BIANCA.VICENTE@light.org.ph</t>
+  </si>
+  <si>
+    <t>MALOLOS</t>
+  </si>
+  <si>
+    <t>LO1</t>
+  </si>
+  <si>
+    <t>MISTY.PAGTALUNAN@light.org.ph</t>
+  </si>
+  <si>
+    <t>LO2</t>
+  </si>
+  <si>
+    <t>ALVIN.MORENO@light.org.ph</t>
+  </si>
+  <si>
+    <t>LO3</t>
+  </si>
+  <si>
+    <t>EMALYN.LLAGAS@light.org.ph</t>
+  </si>
+  <si>
+    <t>LO4</t>
+  </si>
+  <si>
+    <t>JOVIELYN.RAYMUNDO@light.org.ph</t>
+  </si>
+  <si>
+    <t>LO5</t>
+  </si>
+  <si>
+    <t>ELIZABETH.BARASIGAN@light.org.ph</t>
+  </si>
+  <si>
+    <t>UNIT-OIC</t>
+  </si>
+  <si>
+    <t>ROXANNE.ROQUE@light.org.ph</t>
+  </si>
+  <si>
+    <t>LEMUEL.SANPEDRO @light.org.ph</t>
+  </si>
+  <si>
+    <t>MICHELLE.CAPERAL @light.org.ph</t>
+  </si>
+  <si>
+    <t>MIZHELLE.BUHAT@light.org.ph</t>
+  </si>
+  <si>
+    <t>ALVIN.CABANTUGAN@light.org.ph</t>
+  </si>
+  <si>
+    <t>JERRY.BALAGAT@light.org.ph</t>
+  </si>
+  <si>
+    <t>albert.basco@light.org.ph</t>
+  </si>
+  <si>
+    <t>MANAGER</t>
+  </si>
+  <si>
+    <t>suzette.madayag@light.org.ph</t>
+  </si>
+  <si>
+    <t>MAIN OFFICE</t>
+  </si>
+  <si>
+    <t>BIANCA VICENTE</t>
+  </si>
+  <si>
+    <t>MISTY PAGTALUNAN</t>
+  </si>
+  <si>
+    <t>ALVIN MORENO</t>
+  </si>
+  <si>
+    <t>EMALYN LLAGAS</t>
+  </si>
+  <si>
+    <t>JOVIELYN RAYMUNDO</t>
+  </si>
+  <si>
+    <t>ELIZABETH BARASIGAN</t>
+  </si>
+  <si>
+    <t>ROXANNE ROQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEMUEL SANPEDRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICHELLE CAPERAL </t>
+  </si>
+  <si>
+    <t>MIZHELLE BUHAT</t>
+  </si>
+  <si>
+    <t>ALVIN CABANTUGAN</t>
+  </si>
+  <si>
+    <t>JERRY BALAGAT</t>
+  </si>
+  <si>
+    <t>ALBERT BASCO</t>
+  </si>
+  <si>
+    <t>SUZETTE MADAYAG</t>
   </si>
 </sst>
 </file>
@@ -670,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B009895-59D4-354B-A067-D2137EB65BC7}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1329,7 +1440,249 @@
         <v>17</v>
       </c>
     </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39">
+        <v>904</v>
+      </c>
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40">
+        <v>905</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41">
+        <v>906</v>
+      </c>
+      <c r="E41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42">
+        <v>907</v>
+      </c>
+      <c r="E42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43">
+        <v>908</v>
+      </c>
+      <c r="E43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44">
+        <v>87</v>
+      </c>
+      <c r="E44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45">
+        <v>914</v>
+      </c>
+      <c r="E45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46">
+        <v>915</v>
+      </c>
+      <c r="E46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47">
+        <v>916</v>
+      </c>
+      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48">
+        <v>917</v>
+      </c>
+      <c r="E48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49">
+        <v>918</v>
+      </c>
+      <c r="E49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50">
+        <v>142</v>
+      </c>
+      <c r="E50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51">
+        <v>32</v>
+      </c>
+      <c r="E51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B51" r:id="rId1" xr:uid="{B802131B-BB87-0E4B-9552-4076B9316150}"/>
+    <hyperlink ref="B52" r:id="rId2" xr:uid="{50AFB04F-7D20-4344-AF11-0011C7D167C5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>